--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
@@ -828,6 +828,30 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,35 +870,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1215,43 +1215,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1296,58 +1296,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1378,17 +1378,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1493,7 +1493,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="73"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="S11" s="73"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="S12" s="73"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="S13" s="73"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="R14" s="64"/>
       <c r="S14" s="73"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="R15" s="64"/>
       <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="R16" s="64"/>
       <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3178,13 +3178,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3196,6 +3189,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3239,43 +3239,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3320,58 +3320,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -3402,17 +3402,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3483,7 +3483,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3659,7 +3659,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4974,13 +4974,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4992,6 +4985,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5035,43 +5035,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5116,58 +5116,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5198,17 +5198,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5289,7 +5289,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5465,7 +5465,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6780,13 +6780,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6798,6 +6791,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6841,43 +6841,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6922,58 +6922,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7004,17 +7004,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7058,7 +7058,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7107,7 +7107,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7283,7 +7283,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8598,6 +8598,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8609,13 +8616,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8659,43 +8659,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8740,58 +8740,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8816,23 +8816,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8858,7 +8858,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8889,7 +8889,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9034,7 +9034,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9065,7 +9065,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9094,7 +9094,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10383,13 +10383,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10401,6 +10394,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -273,18 +273,6 @@
     <t>Đế chân, Kết nối</t>
   </si>
   <si>
-    <t>WSP21060008S0366</t>
-  </si>
-  <si>
-    <t>WSP21060004S0237/ 00320007F1</t>
-  </si>
-  <si>
-    <t>WP21120135S00117/ 0032002381</t>
-  </si>
-  <si>
-    <t>WP21110052S00239</t>
-  </si>
-  <si>
     <t>Anh Tuấn NB</t>
   </si>
   <si>
@@ -306,27 +294,12 @@
     <t>BT</t>
   </si>
   <si>
-    <t>WP21110052S00309/ 0032000FAD</t>
-  </si>
-  <si>
     <t>Trạng thái module GSM không tồn tại</t>
   </si>
   <si>
     <t>Đổi mới thiết bị</t>
   </si>
   <si>
-    <t>WP21110052S00323/ 0032000F39</t>
-  </si>
-  <si>
-    <t>Khách báo lỗi tiêu tự, cổng type A lỗi, thiết bị không chốt GPS</t>
-  </si>
-  <si>
-    <t>WSP21060004S0119/ 0032000825</t>
-  </si>
-  <si>
-    <t>WP21110052S00625/ 0032000D51</t>
-  </si>
-  <si>
     <t>Le4.1.04.BOO01.221222</t>
   </si>
   <si>
@@ -354,18 +327,9 @@
     <t>Đổi mới dây nguồn</t>
   </si>
   <si>
-    <t>WP21110052S00163/ 003200ED4</t>
-  </si>
-  <si>
     <t>Thiết bị lắp sim mobi không nhận 4G, không connected đến server</t>
   </si>
   <si>
-    <t>Thiết bị lỗi chân khay sim</t>
-  </si>
-  <si>
-    <t>WP21110069S00800/ 003200125D</t>
-  </si>
-  <si>
     <t>V3.3.21.3_R21111601</t>
   </si>
   <si>
@@ -378,7 +342,49 @@
     <t>Đã test lại</t>
   </si>
   <si>
-    <t>WP21110069S00120/ 0032001127</t>
+    <t>WP21110052S00239 / 0032000CF2</t>
+  </si>
+  <si>
+    <t>Lỗi chân khay sim</t>
+  </si>
+  <si>
+    <t>Bóc khay sim qua id: 0032000CF2</t>
+  </si>
+  <si>
+    <t>Đã bóc khay sim</t>
+  </si>
+  <si>
+    <t>Lỗi tiêu cự, cổng type A không nhận</t>
+  </si>
+  <si>
+    <t>WP21110052S00309 / 0032000FAD</t>
+  </si>
+  <si>
+    <t>WP21110052S00625 / 0032000D51</t>
+  </si>
+  <si>
+    <t>WSP21060008S0366 / 0032000B2B</t>
+  </si>
+  <si>
+    <t>WSP21060004S0119 / 0032000825</t>
+  </si>
+  <si>
+    <t>WP21110052S00323 / 0032000F39</t>
+  </si>
+  <si>
+    <t>WSP21060004S0237 / 00320007F1</t>
+  </si>
+  <si>
+    <t>WP21120135S00117 / 0032002381</t>
+  </si>
+  <si>
+    <t>WP21110069S00800 / 003200125D</t>
+  </si>
+  <si>
+    <t>WP21110052S00163 / 0032000ED4</t>
+  </si>
+  <si>
+    <t>WP21110069S00120 / 0032001127</t>
   </si>
 </sst>
 </file>
@@ -828,30 +834,6 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,11 +852,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1189,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1215,43 +1221,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="92"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1296,58 +1302,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1378,17 +1384,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1409,7 @@
         <v>74</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>76</v>
@@ -1413,21 +1419,21 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P6" s="71" t="s">
         <v>63</v>
@@ -1440,7 +1446,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1460,7 +1466,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>76</v>
@@ -1470,17 +1476,17 @@
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N7" s="71"/>
       <c r="O7" s="70" t="s">
@@ -1493,7 +1499,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>74</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>75</v>
@@ -1521,17 +1527,17 @@
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N8" s="71"/>
       <c r="O8" s="70" t="s">
@@ -1544,7 +1550,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>75</v>
@@ -1572,21 +1578,21 @@
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J9" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="70" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M9" s="70" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N9" s="71"/>
       <c r="O9" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P9" s="71" t="s">
         <v>63</v>
@@ -1599,7 +1605,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>74</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>75</v>
@@ -1625,15 +1631,17 @@
       <c r="G10" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="71" t="s">
+        <v>102</v>
+      </c>
       <c r="I10" s="78"/>
       <c r="J10" s="70"/>
       <c r="K10" s="79"/>
       <c r="L10" s="79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N10" s="71"/>
       <c r="O10" s="70" t="s">
@@ -1646,7 +1654,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="73"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1664,7 +1672,7 @@
         <v>74</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>75</v>
@@ -1673,24 +1681,24 @@
         <v>66</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="70" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N11" s="71"/>
       <c r="O11" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P11" s="71" t="s">
         <v>63</v>
@@ -1703,7 +1711,7 @@
       </c>
       <c r="S11" s="73"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>75</v>
@@ -1731,23 +1739,23 @@
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K12" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M12" s="70" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="71"/>
       <c r="O12" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P12" s="71" t="s">
         <v>63</v>
@@ -1760,7 +1768,7 @@
       </c>
       <c r="S12" s="73"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1780,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>75</v>
@@ -1790,21 +1798,21 @@
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M13" s="70" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N13" s="71"/>
       <c r="O13" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P13" s="71" t="s">
         <v>63</v>
@@ -1817,7 +1825,7 @@
       </c>
       <c r="S13" s="73"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F14" s="64" t="s">
         <v>75</v>
@@ -1843,26 +1851,38 @@
       <c r="G14" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="77" t="s">
+        <v>103</v>
+      </c>
       <c r="I14" s="78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="71"/>
+        <v>101</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>82</v>
+      </c>
       <c r="N14" s="71"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="64"/>
+      <c r="O14" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="73"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +1900,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>75</v>
@@ -1890,24 +1910,28 @@
       </c>
       <c r="H15" s="71"/>
       <c r="I15" s="78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J15" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="70"/>
+        <v>95</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>85</v>
+      </c>
       <c r="N15" s="71"/>
-      <c r="O15" s="70"/>
+      <c r="O15" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="P15" s="71"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="64"/>
       <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +1949,7 @@
         <v>74</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>75</v>
@@ -1935,22 +1959,34 @@
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="64"/>
+      <c r="P16" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2105,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2101,7 +2137,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2410,7 +2446,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2570,7 +2606,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2602,7 +2638,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2688,7 +2724,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -3178,6 +3214,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3189,13 +3232,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3239,43 +3275,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="92"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3320,58 +3356,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -3402,17 +3438,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3436,10 +3472,10 @@
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
@@ -3452,7 +3488,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3483,7 +3519,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3512,7 +3548,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3577,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3570,7 +3606,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3599,7 +3635,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3628,7 +3664,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3659,7 +3695,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3688,7 +3724,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3753,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3746,7 +3782,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4974,6 +5010,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4985,13 +5028,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5035,43 +5071,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="92"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5116,58 +5152,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5198,17 +5234,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,21 +5267,21 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P6" s="71" t="s">
         <v>63</v>
@@ -5258,7 +5294,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5289,7 +5325,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5318,7 +5354,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5383,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5376,7 +5412,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5441,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5470,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5465,7 +5501,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5530,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +5559,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5588,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6780,6 +6816,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6791,13 +6834,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6841,43 +6877,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="92"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6922,58 +6958,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7004,17 +7040,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7058,7 +7094,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7107,7 +7143,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7136,7 +7172,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7165,7 +7201,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7194,7 +7230,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7223,7 +7259,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7252,7 +7288,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7283,7 +7319,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7312,7 +7348,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7341,7 +7377,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7370,7 +7406,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8598,13 +8634,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8616,6 +8645,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8659,43 +8695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="95"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8740,58 +8776,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8816,23 +8852,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8858,7 +8894,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8889,7 +8925,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8918,7 +8954,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8947,7 +8983,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8976,7 +9012,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9005,7 +9041,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9034,7 +9070,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9065,7 +9101,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9094,7 +9130,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9123,7 +9159,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9152,7 +9188,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10383,6 +10419,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10394,13 +10437,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
@@ -9,33 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="VNSH02" sheetId="46" r:id="rId1"/>
-    <sheet name="PhuKien" sheetId="45" r:id="rId2"/>
-    <sheet name="TG102LE-4G" sheetId="44" r:id="rId3"/>
+    <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
+    <sheet name="VNSH02" sheetId="46" r:id="rId2"/>
+    <sheet name="PhuKien" sheetId="45" r:id="rId3"/>
     <sheet name="Camera" sheetId="43" r:id="rId4"/>
     <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Camera!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhuKien!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VNSH02!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">Camera!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">PhuKien!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Lỗi chân khay sim</t>
   </si>
   <si>
-    <t>Bóc khay sim qua id: 0032000CF2</t>
-  </si>
-  <si>
     <t>Đã bóc khay sim</t>
   </si>
   <si>
@@ -385,6 +382,18 @@
   </si>
   <si>
     <t>WP21110069S00120 / 0032001127</t>
+  </si>
+  <si>
+    <t>IMEI mới: WP22050219S00199 / 0032004DE8</t>
+  </si>
+  <si>
+    <t>IMEI mới: WP22050219S00203 / 00320046BC</t>
+  </si>
+  <si>
+    <t>Bóc khay sim qua id: 0032000CF2, IMEI mới: WP22050219S00198 / 00320040E2</t>
+  </si>
+  <si>
+    <t>IMEI mới: WP22050219S00201 / 0032003BA8</t>
   </si>
 </sst>
 </file>
@@ -595,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,6 +843,30 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,35 +885,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1221,43 +1233,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1302,58 +1314,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1384,17 +1396,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,32 +1416,32 @@
       <c r="B6" s="68">
         <v>44964</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44978</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E6" s="65">
+        <v>862205051197079</v>
+      </c>
+      <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="70"/>
+        <v>87</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70" t="s">
+        <v>86</v>
+      </c>
       <c r="L6" s="70" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
@@ -1439,14 +1451,14 @@
         <v>63</v>
       </c>
       <c r="Q6" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="64" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1458,48 +1470,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="68">
-        <v>44964</v>
-      </c>
+      <c r="B7" s="68"/>
       <c r="C7" s="68"/>
-      <c r="D7" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>66</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="64"/>
-      <c r="I7" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>80</v>
-      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="70"/>
-      <c r="L7" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>85</v>
-      </c>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="71"/>
-      <c r="O7" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="71" t="s">
-        <v>63</v>
-      </c>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="72"/>
       <c r="R7" s="64"/>
-      <c r="S7" s="73"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1509,48 +1499,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="73"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1560,52 +1528,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="73"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1615,46 +1557,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="73"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1664,54 +1586,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="73"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1721,54 +1615,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="73"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1780,52 +1646,26 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="73"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1835,54 +1675,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="73"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1892,46 +1704,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="73"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1941,52 +1733,26 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="68">
-        <v>44964</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="73"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2105,7 +1871,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2137,7 +1903,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2318,7 +2084,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2446,7 +2212,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2606,7 +2372,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2638,7 +2404,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2724,7 +2490,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -3214,13 +2980,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3232,6 +2991,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3242,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3275,43 +3041,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3356,58 +3122,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -3438,17 +3204,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,37 +3224,51 @@
       <c r="B6" s="68">
         <v>44964</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44978</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+        <v>108</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="I6" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P6" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="64"/>
+      <c r="Q6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3500,26 +3280,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="B7" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C7" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>85</v>
+      </c>
       <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
+      <c r="O7" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="72"/>
       <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3529,26 +3335,52 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
+      <c r="B8" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C8" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3558,26 +3390,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
+      <c r="B9" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C9" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="73"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3587,26 +3447,48 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C10" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3616,26 +3498,56 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="B11" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C11" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="71"/>
+      <c r="O11" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="73"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3645,26 +3557,56 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="B12" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C12" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="71"/>
+      <c r="O12" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="73"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3676,26 +3618,54 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="B13" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C13" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="71"/>
+      <c r="O13" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="73"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3705,26 +3675,56 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C14" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="73"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3734,26 +3734,50 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C15" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="71"/>
+      <c r="O15" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3763,26 +3787,54 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="68">
+        <v>44964</v>
+      </c>
+      <c r="C16" s="68">
+        <v>44978</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3901,7 +3953,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3933,7 +3985,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4114,7 +4166,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -4242,7 +4294,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4370,7 +4422,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4402,7 +4454,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4434,7 +4486,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4520,7 +4572,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -5010,13 +5062,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5028,6 +5073,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5038,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5071,43 +5123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5152,58 +5204,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5234,17 +5286,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5254,47 +5306,39 @@
       <c r="B6" s="68">
         <v>44964</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44978</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="65">
-        <v>862205051197079</v>
+        <v>72</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="64"/>
       <c r="H6" s="64"/>
-      <c r="I6" s="69" t="s">
-        <v>87</v>
-      </c>
+      <c r="I6" s="69"/>
       <c r="J6" s="70"/>
-      <c r="K6" s="70" t="s">
-        <v>86</v>
-      </c>
+      <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="70" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P6" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5325,7 +5369,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5354,7 +5398,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5383,7 +5427,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5412,7 +5456,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5441,7 +5485,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5470,7 +5514,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5501,7 +5545,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5530,7 +5574,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5559,7 +5603,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5588,7 +5632,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5707,7 +5751,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6176,7 +6220,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6240,7 +6284,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6326,7 +6370,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -6816,13 +6860,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6834,6 +6871,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6844,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6877,43 +6921,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6958,58 +7002,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="86" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7040,17 +7084,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,7 +7104,9 @@
       <c r="B6" s="68">
         <v>44964</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44978</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -7094,7 +7140,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7109,7 +7155,9 @@
       <c r="B7" s="68">
         <v>44964</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68">
+        <v>44978</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -7143,7 +7191,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7172,7 +7220,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7201,7 +7249,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7230,7 +7278,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7259,7 +7307,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7288,7 +7336,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7319,7 +7367,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7348,7 +7396,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7377,7 +7425,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7406,7 +7454,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8634,6 +8682,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8645,13 +8700,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8695,43 +8743,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8776,58 +8824,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8852,23 +8900,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8894,7 +8942,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8925,7 +8973,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8954,7 +9002,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8983,7 +9031,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9012,7 +9060,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9041,7 +9089,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9070,7 +9118,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9101,7 +9149,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9130,7 +9178,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9159,7 +9207,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9188,7 +9236,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10419,13 +10467,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10437,6 +10478,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -843,28 +843,7 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,14 +864,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1233,43 +1233,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1314,58 +1314,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -1396,17 +1396,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1489,7 +1489,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1665,7 +1665,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2980,6 +2980,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2991,13 +2998,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3008,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3041,43 +3041,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3122,58 +3122,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -3204,17 +3204,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3298,7 +3298,7 @@
       <c r="G7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="80" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="69" t="s">
@@ -3325,7 +3325,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="73"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="73"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="73"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="S11" s="73"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="S12" s="73"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="S13" s="73"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="S14" s="73"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="R15" s="64"/>
       <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5062,6 +5062,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5073,13 +5080,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5090,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5123,43 +5123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5204,58 +5204,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -5286,17 +5286,17 @@
       <c r="K5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,7 +5338,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5369,7 +5369,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5545,7 +5545,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6860,6 +6860,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6871,13 +6878,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6888,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6921,43 +6921,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -7002,58 +7002,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7084,17 +7084,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7191,7 +7191,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7367,7 +7367,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8682,13 +8682,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8700,6 +8693,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8743,39 +8743,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="95" t="s">
         <v>77</v>
       </c>
@@ -8824,58 +8824,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8900,23 +8900,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8942,7 +8942,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8973,7 +8973,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9118,7 +9118,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9149,7 +9149,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10467,6 +10467,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10478,13 +10485,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
